--- a/Bundle/Glodeni/PT_Glodeni.xlsx
+++ b/Bundle/Glodeni/PT_Glodeni.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Red-Nord\Birou\Bundle\Glodeni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frameworks\GitHub\Dispatcher_Bureau\Bundle\Glodeni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ADAA2E-EDBC-41EA-9407-2F3E4DFB0CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB4F350-837B-4E1B-94A5-0C6E3D424590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" xr2:uid="{9A396AB9-6E7F-4978-AFCE-8C60F5766EE6}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="25320" windowHeight="14115" xr2:uid="{9A396AB9-6E7F-4978-AFCE-8C60F5766EE6}"/>
   </bookViews>
   <sheets>
     <sheet name="PT_Glodeni" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1295,15 +1295,9 @@
     <t>s.Cajba</t>
   </si>
   <si>
-    <t>s.Duşmani</t>
-  </si>
-  <si>
     <t>s.Clococenii Vechi</t>
   </si>
   <si>
-    <t>s.Stîrcea</t>
-  </si>
-  <si>
     <t>s.Soroca</t>
   </si>
   <si>
@@ -1334,9 +1328,6 @@
     <t>s.Brânzeni</t>
   </si>
   <si>
-    <t>s.Camencuţa</t>
-  </si>
-  <si>
     <t>s.Fundurii Vechi</t>
   </si>
   <si>
@@ -1355,45 +1346,21 @@
     <t>s.Balatina</t>
   </si>
   <si>
-    <t>s.Buteşti</t>
-  </si>
-  <si>
-    <t>s.Lipovăţ</t>
-  </si>
-  <si>
     <t>s.Clococenii Noi</t>
   </si>
   <si>
     <t>s.Cobani</t>
   </si>
   <si>
-    <t>s.Răzeşti</t>
-  </si>
-  <si>
-    <t>s.Tomeşti</t>
-  </si>
-  <si>
     <t>s.Clococenii de jos</t>
   </si>
   <si>
-    <t>s.Cuhneşti</t>
-  </si>
-  <si>
     <t>s. Serghienii Noi</t>
   </si>
   <si>
     <t>s.Movileni</t>
   </si>
   <si>
-    <t>s.M.Domnescă</t>
-  </si>
-  <si>
-    <t>s.Viişoara</t>
-  </si>
-  <si>
-    <t>s.Moleşti</t>
-  </si>
-  <si>
     <t>s.Cot</t>
   </si>
   <si>
@@ -1406,9 +1373,6 @@
     <t>S.A. "TUTUN-CTC"</t>
   </si>
   <si>
-    <t>G.Ţ."Buzdugan-Buzdugan"</t>
-  </si>
-  <si>
     <t>SRL "Agrotehimpex"</t>
   </si>
   <si>
@@ -1421,33 +1385,18 @@
     <t>SRL „Liorent Agro”</t>
   </si>
   <si>
-    <t>Î.M."Moldcel" S.A.</t>
-  </si>
-  <si>
     <t xml:space="preserve">S.A."Moldtelecom" </t>
   </si>
   <si>
     <t>SA "Orange Moldova"</t>
   </si>
   <si>
-    <t>SRL"Bălţi GAZ"</t>
-  </si>
-  <si>
-    <t>Cooperativa "COCOŞEL"</t>
-  </si>
-  <si>
-    <t>Serviciul protecţie şi situaţii exepţionale mun. Bălţi</t>
-  </si>
-  <si>
     <t>АЗС,REDREX""</t>
   </si>
   <si>
     <t>SRL "Plantagor"</t>
   </si>
   <si>
-    <t>Î.C.S "Lukoil-Moldova" SRL</t>
-  </si>
-  <si>
     <t>SRL PLANTAGOR</t>
   </si>
   <si>
@@ -1460,24 +1409,12 @@
     <t>S.A."Faur Constructor"</t>
   </si>
   <si>
-    <t>Î.S. "Gospodăria Silvică"</t>
-  </si>
-  <si>
-    <t>Î.C.de panificare Glodeni</t>
-  </si>
-  <si>
-    <t>ÎCS"Plasticmanufacturing"SRL</t>
-  </si>
-  <si>
     <t>SRL "CONPLASTMONTAJ"</t>
   </si>
   <si>
     <t>SRL "Mega-Color-Plus"</t>
   </si>
   <si>
-    <t>SRL"Glodeni Reparaţii"</t>
-  </si>
-  <si>
     <t>SA "PETROM"</t>
   </si>
   <si>
@@ -1487,15 +1424,6 @@
     <t>SRL "FERNUCCI"</t>
   </si>
   <si>
-    <t>Î.M."La Şesul Petrenilor"</t>
-  </si>
-  <si>
-    <t>Țurcan Alexandru</t>
-  </si>
-  <si>
-    <t>GŢ" Mihail Spînu"</t>
-  </si>
-  <si>
     <t>I.I."Brinzeanu Igor"</t>
   </si>
   <si>
@@ -1505,18 +1433,9 @@
     <t>GT DOLEANSCHII</t>
   </si>
   <si>
-    <t>Î.M."ORANGE-Moldova"S.A.</t>
-  </si>
-  <si>
-    <t>Puşcaş Vasile</t>
-  </si>
-  <si>
     <t>SRL "GOIANA PETR.CO"</t>
   </si>
   <si>
-    <t>A.Ghileţchii</t>
-  </si>
-  <si>
     <t>SRL "INTERNATIONAL"</t>
   </si>
   <si>
@@ -1535,27 +1454,15 @@
     <t>SRL "PRINCIAR"</t>
   </si>
   <si>
-    <t>SRL "Bălţi GAZ"</t>
-  </si>
-  <si>
-    <t>SA "Drumuri Rîşcani"</t>
-  </si>
-  <si>
     <t>RN "PADUREA DOMNEASCA"</t>
   </si>
   <si>
-    <t>VIȘCHIU ANDREI</t>
-  </si>
-  <si>
     <t>SRL"Bivagrotom"</t>
   </si>
   <si>
     <t>SRL"Galiada Fam"</t>
   </si>
   <si>
-    <t xml:space="preserve">GŢ "Meriacre Ion Melente" </t>
-  </si>
-  <si>
     <t>RUTKOVSCHI IURIE</t>
   </si>
   <si>
@@ -1568,31 +1475,124 @@
     <t>II "DELEU"</t>
   </si>
   <si>
-    <t>G.Ţ."Cucuruza Filip"</t>
-  </si>
-  <si>
     <t>SRL"Mondi-Tur"</t>
   </si>
   <si>
-    <t>G.Ţ."Crivţun Angela Nicolai"</t>
-  </si>
-  <si>
-    <t>G.Ţ."Moghildă Valeriu Ion"</t>
-  </si>
-  <si>
     <t>S.A."Macon-Rut"</t>
   </si>
   <si>
-    <t>SRL INIȚIATOR</t>
-  </si>
-  <si>
-    <t>S.A."Glodeni Zahăr"</t>
-  </si>
-  <si>
     <t>S.A."Carier Cobani"</t>
   </si>
   <si>
-    <t>Î.S.DENH Costeşti Stînca</t>
+    <t>s.M.Domnesca</t>
+  </si>
+  <si>
+    <t>S.A."Glodeni Zahar"</t>
+  </si>
+  <si>
+    <t>i.M."Moldcel" S.A.</t>
+  </si>
+  <si>
+    <t>s.Stircea</t>
+  </si>
+  <si>
+    <t>i.C.S "Lukoil-Moldova" SRL</t>
+  </si>
+  <si>
+    <t>i.S. "Gospodaria Silvica"</t>
+  </si>
+  <si>
+    <t>i.C.de panificare Glodeni</t>
+  </si>
+  <si>
+    <t>iCS"Plasticmanufacturing"SRL</t>
+  </si>
+  <si>
+    <t>i.M."ORANGE-Moldova"S.A.</t>
+  </si>
+  <si>
+    <t>Cooperativa "COCOsEL"</t>
+  </si>
+  <si>
+    <t>s.Dusmani</t>
+  </si>
+  <si>
+    <t>i.M."La sesul Petrenilor"</t>
+  </si>
+  <si>
+    <t>Puscas Vasile</t>
+  </si>
+  <si>
+    <t>s.Butesti</t>
+  </si>
+  <si>
+    <t>SA "Drumuri Riscani"</t>
+  </si>
+  <si>
+    <t>VIsCHIU ANDREI</t>
+  </si>
+  <si>
+    <t>s.Razesti</t>
+  </si>
+  <si>
+    <t>s.Tomesti</t>
+  </si>
+  <si>
+    <t>s.Cuhnesti</t>
+  </si>
+  <si>
+    <t>s.Viisoara</t>
+  </si>
+  <si>
+    <t>s.Molesti</t>
+  </si>
+  <si>
+    <t>i.S.DENH Costesti Stinca</t>
+  </si>
+  <si>
+    <t>G.t."Buzdugan-Buzdugan"</t>
+  </si>
+  <si>
+    <t>SRL"Balti GAZ"</t>
+  </si>
+  <si>
+    <t>Serviciul protectie si situatii exeptionale mun. Balti</t>
+  </si>
+  <si>
+    <t>SRL"Glodeni Reparatii"</t>
+  </si>
+  <si>
+    <t>turcan Alexandru</t>
+  </si>
+  <si>
+    <t>Gt" Mihail Spinu"</t>
+  </si>
+  <si>
+    <t>s.Camencuta</t>
+  </si>
+  <si>
+    <t>A.Ghiletchii</t>
+  </si>
+  <si>
+    <t>SRL "Balti GAZ"</t>
+  </si>
+  <si>
+    <t>s.Lipovat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gt "Meriacre Ion Melente" </t>
+  </si>
+  <si>
+    <t>G.t."Cucuruza Filip"</t>
+  </si>
+  <si>
+    <t>G.t."Crivtun Angela Nicolai"</t>
+  </si>
+  <si>
+    <t>G.t."Moghilda Valeriu Ion"</t>
+  </si>
+  <si>
+    <t>SRL INItIATOR</t>
   </si>
 </sst>
 </file>
@@ -2021,9 +2021,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I660"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G390" sqref="G390"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2067,7 +2065,7 @@
         <v>418</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
@@ -2088,7 +2086,7 @@
         <v>418</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
@@ -2109,7 +2107,7 @@
         <v>418</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -2130,7 +2128,7 @@
         <v>418</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -2151,7 +2149,7 @@
         <v>418</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -2172,7 +2170,7 @@
         <v>418</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D7" s="9">
         <v>2</v>
@@ -2193,7 +2191,7 @@
         <v>418</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -2214,7 +2212,7 @@
         <v>418</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -2235,7 +2233,7 @@
         <v>418</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -2256,7 +2254,7 @@
         <v>418</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -2277,7 +2275,7 @@
         <v>418</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -2298,7 +2296,7 @@
         <v>418</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -2319,7 +2317,7 @@
         <v>419</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -2340,7 +2338,7 @@
         <v>419</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D15" s="9">
         <v>132</v>
@@ -2361,7 +2359,7 @@
         <v>419</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D16" s="9">
         <v>79</v>
@@ -2382,7 +2380,7 @@
         <v>419</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D17" s="9">
         <v>177</v>
@@ -2403,7 +2401,7 @@
         <v>419</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -2424,7 +2422,7 @@
         <v>419</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D19" s="9">
         <v>132</v>
@@ -2445,7 +2443,7 @@
         <v>419</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
@@ -2466,7 +2464,7 @@
         <v>419</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D21" s="9">
         <v>91</v>
@@ -2487,7 +2485,7 @@
         <v>419</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D22" s="9">
         <v>114</v>
@@ -2508,7 +2506,7 @@
         <v>419</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D23" s="9">
         <v>131</v>
@@ -2529,7 +2527,7 @@
         <v>419</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D24" s="9">
         <v>151</v>
@@ -2550,7 +2548,7 @@
         <v>420</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D25" s="9">
         <v>0</v>
@@ -2571,7 +2569,7 @@
         <v>420</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D26" s="9">
         <v>0</v>
@@ -2592,7 +2590,7 @@
         <v>419</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D27" s="9">
         <v>25</v>
@@ -2613,7 +2611,7 @@
         <v>419</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D28" s="9">
         <v>236</v>
@@ -2634,7 +2632,7 @@
         <v>419</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D29" s="9">
         <v>35</v>
@@ -2655,7 +2653,7 @@
         <v>419</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D30" s="9">
         <v>110</v>
@@ -2676,7 +2674,7 @@
         <v>419</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="D31" s="9">
         <v>0</v>
@@ -2697,7 +2695,7 @@
         <v>420</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D32" s="9">
         <v>0</v>
@@ -2718,7 +2716,7 @@
         <v>420</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D33" s="9">
         <v>0</v>
@@ -2739,7 +2737,7 @@
         <v>420</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D34" s="9">
         <v>214</v>
@@ -2760,7 +2758,7 @@
         <v>420</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D35" s="9">
         <v>122</v>
@@ -2778,10 +2776,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D36" s="9">
         <v>0</v>
@@ -2802,7 +2800,7 @@
         <v>420</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D37" s="9">
         <v>173</v>
@@ -2823,7 +2821,7 @@
         <v>420</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D38" s="9">
         <v>61</v>
@@ -2844,7 +2842,7 @@
         <v>420</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D39" s="9">
         <v>53</v>
@@ -2860,10 +2858,10 @@
         <v>43</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D40" s="9">
         <v>100</v>
@@ -2881,10 +2879,10 @@
         <v>44</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D41" s="9">
         <v>100</v>
@@ -2902,10 +2900,10 @@
         <v>45</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D42" s="9">
         <v>78</v>
@@ -2923,10 +2921,10 @@
         <v>46</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D43" s="9">
         <v>0</v>
@@ -2944,10 +2942,10 @@
         <v>47</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D44" s="9">
         <v>0</v>
@@ -2968,7 +2966,7 @@
         <v>418</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="D45" s="9">
         <v>0</v>
@@ -2989,7 +2987,7 @@
         <v>418</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D46" s="9">
         <v>161</v>
@@ -3010,7 +3008,7 @@
         <v>418</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D47" s="9">
         <v>219</v>
@@ -3031,7 +3029,7 @@
         <v>418</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D48" s="9">
         <v>118</v>
@@ -3052,7 +3050,7 @@
         <v>418</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D49" s="9">
         <v>111</v>
@@ -3073,7 +3071,7 @@
         <v>418</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D50" s="9">
         <v>255</v>
@@ -3094,7 +3092,7 @@
         <v>418</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D51" s="9">
         <v>156</v>
@@ -3115,7 +3113,7 @@
         <v>418</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D52" s="9">
         <v>236</v>
@@ -3136,7 +3134,7 @@
         <v>418</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D53" s="9">
         <v>143</v>
@@ -3157,7 +3155,7 @@
         <v>418</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D54" s="9">
         <v>157</v>
@@ -3178,7 +3176,7 @@
         <v>418</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D55" s="9">
         <v>4</v>
@@ -3199,7 +3197,7 @@
         <v>418</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D56" s="9">
         <v>0</v>
@@ -3220,7 +3218,7 @@
         <v>418</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D57" s="9">
         <v>1</v>
@@ -3241,7 +3239,7 @@
         <v>418</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D58" s="9">
         <v>99</v>
@@ -3262,7 +3260,7 @@
         <v>418</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D59" s="9">
         <v>125</v>
@@ -3283,7 +3281,7 @@
         <v>418</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D60" s="9">
         <v>0</v>
@@ -3304,7 +3302,7 @@
         <v>418</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D61" s="9">
         <v>175</v>
@@ -3325,7 +3323,7 @@
         <v>418</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D62" s="9">
         <v>172</v>
@@ -3346,7 +3344,7 @@
         <v>418</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D63" s="9">
         <v>0</v>
@@ -3367,7 +3365,7 @@
         <v>418</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="D64" s="9">
         <v>0</v>
@@ -3388,7 +3386,7 @@
         <v>418</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D65" s="9">
         <v>0</v>
@@ -3409,7 +3407,7 @@
         <v>418</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D66" s="9">
         <v>193</v>
@@ -3430,7 +3428,7 @@
         <v>418</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D67" s="9">
         <v>49</v>
@@ -3451,7 +3449,7 @@
         <v>418</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D68" s="9">
         <v>171</v>
@@ -3472,7 +3470,7 @@
         <v>418</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D69" s="9">
         <v>69</v>
@@ -3493,7 +3491,7 @@
         <v>418</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="D70" s="9">
         <v>0</v>
@@ -3511,10 +3509,10 @@
         <v>74</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D71" s="9">
         <v>16</v>
@@ -3535,7 +3533,7 @@
         <v>418</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="D72" s="9">
         <v>0</v>
@@ -3556,7 +3554,7 @@
         <v>418</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D73" s="9">
         <v>12</v>
@@ -3574,10 +3572,10 @@
         <v>77</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D74" s="9">
         <v>81</v>
@@ -3595,10 +3593,10 @@
         <v>78</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D75" s="9">
         <v>55</v>
@@ -3616,10 +3614,10 @@
         <v>79</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D76" s="9">
         <v>0</v>
@@ -3640,7 +3638,7 @@
         <v>418</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D77" s="9">
         <v>1</v>
@@ -3658,10 +3656,10 @@
         <v>81</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D78" s="9">
         <v>52</v>
@@ -3679,10 +3677,10 @@
         <v>82</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D79" s="9">
         <v>0</v>
@@ -3700,10 +3698,10 @@
         <v>83</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D80" s="9">
         <v>0</v>
@@ -3721,10 +3719,10 @@
         <v>84</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D81" s="9">
         <v>151</v>
@@ -3742,10 +3740,10 @@
         <v>85</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="D82" s="9">
         <v>0</v>
@@ -3763,10 +3761,10 @@
         <v>86</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D83" s="9">
         <v>0</v>
@@ -3787,7 +3785,7 @@
         <v>418</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D84" s="9">
         <v>121</v>
@@ -3808,7 +3806,7 @@
         <v>418</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D85" s="9">
         <v>130</v>
@@ -3829,7 +3827,7 @@
         <v>418</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D86" s="9">
         <v>130</v>
@@ -3850,7 +3848,7 @@
         <v>418</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D87" s="9">
         <v>1</v>
@@ -3871,7 +3869,7 @@
         <v>418</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="D88" s="9">
         <v>0</v>
@@ -3892,7 +3890,7 @@
         <v>418</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="D89" s="9">
         <v>0</v>
@@ -3911,7 +3909,7 @@
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="9" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D90" s="9">
         <v>0</v>
@@ -3932,7 +3930,7 @@
         <v>418</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D91" s="9">
         <v>0</v>
@@ -3953,7 +3951,7 @@
         <v>418</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D92" s="9">
         <v>0</v>
@@ -3974,7 +3972,7 @@
         <v>418</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D93" s="9">
         <v>0</v>
@@ -3995,7 +3993,7 @@
         <v>418</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="D94" s="9">
         <v>0</v>
@@ -4016,7 +4014,7 @@
         <v>418</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="D95" s="9">
         <v>0</v>
@@ -4037,7 +4035,7 @@
         <v>418</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="D96" s="9">
         <v>0</v>
@@ -4058,7 +4056,7 @@
         <v>418</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="D97" s="9">
         <v>0</v>
@@ -4079,7 +4077,7 @@
         <v>418</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D98" s="9">
         <v>49</v>
@@ -4100,7 +4098,7 @@
         <v>418</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="D99" s="9">
         <v>0</v>
@@ -4121,7 +4119,7 @@
         <v>418</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D100" s="9">
         <v>169</v>
@@ -4142,7 +4140,7 @@
         <v>418</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D101" s="9">
         <v>0</v>
@@ -4163,7 +4161,7 @@
         <v>418</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D102" s="9">
         <v>0</v>
@@ -4184,7 +4182,7 @@
         <v>418</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D103" s="9">
         <v>0</v>
@@ -4205,7 +4203,7 @@
         <v>418</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D104" s="9">
         <v>168</v>
@@ -4226,7 +4224,7 @@
         <v>418</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="D105" s="9">
         <v>0</v>
@@ -4247,7 +4245,7 @@
         <v>418</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="D106" s="9">
         <v>0</v>
@@ -4268,7 +4266,7 @@
         <v>418</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D107" s="9">
         <v>128</v>
@@ -4289,7 +4287,7 @@
         <v>418</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D108" s="9">
         <v>98</v>
@@ -4310,7 +4308,7 @@
         <v>418</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D109" s="9">
         <v>148</v>
@@ -4331,7 +4329,7 @@
         <v>418</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D110" s="9">
         <v>179</v>
@@ -4352,7 +4350,7 @@
         <v>418</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D111" s="9">
         <v>35</v>
@@ -4373,7 +4371,7 @@
         <v>418</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D112" s="9">
         <v>107</v>
@@ -4394,7 +4392,7 @@
         <v>418</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D113" s="9">
         <v>57</v>
@@ -4415,7 +4413,7 @@
         <v>418</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D114" s="9">
         <v>58</v>
@@ -4436,7 +4434,7 @@
         <v>418</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D115" s="9">
         <v>334</v>
@@ -4457,7 +4455,7 @@
         <v>418</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D116" s="9">
         <v>0</v>
@@ -4478,7 +4476,7 @@
         <v>418</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D117" s="9">
         <v>47</v>
@@ -4499,7 +4497,7 @@
         <v>418</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D118" s="9">
         <v>0</v>
@@ -4520,7 +4518,7 @@
         <v>418</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D119" s="9">
         <v>24</v>
@@ -4541,7 +4539,7 @@
         <v>418</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="D120" s="9">
         <v>0</v>
@@ -4559,10 +4557,10 @@
         <v>124</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D121" s="9">
         <v>0</v>
@@ -4580,10 +4578,10 @@
         <v>125</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D122" s="9">
         <v>0</v>
@@ -4601,10 +4599,10 @@
         <v>126</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D123" s="9">
         <v>0</v>
@@ -4622,10 +4620,10 @@
         <v>127</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D124" s="9">
         <v>0</v>
@@ -4643,10 +4641,10 @@
         <v>128</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D125" s="9">
         <v>27</v>
@@ -4664,10 +4662,10 @@
         <v>129</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D126" s="9">
         <v>190</v>
@@ -4685,10 +4683,10 @@
         <v>130</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D127" s="9">
         <v>0</v>
@@ -4706,7 +4704,7 @@
         <v>131</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9">
@@ -4725,10 +4723,10 @@
         <v>132</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D129" s="9">
         <v>42</v>
@@ -4746,10 +4744,10 @@
         <v>133</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D130" s="9">
         <v>126</v>
@@ -4767,10 +4765,10 @@
         <v>134</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D131" s="9">
         <v>38</v>
@@ -4788,10 +4786,10 @@
         <v>135</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D132" s="9">
         <v>120</v>
@@ -4809,10 +4807,10 @@
         <v>136</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D133" s="9">
         <v>79</v>
@@ -4830,10 +4828,10 @@
         <v>137</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D134" s="9">
         <v>0</v>
@@ -4851,10 +4849,10 @@
         <v>138</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D135" s="9">
         <v>0</v>
@@ -4872,10 +4870,10 @@
         <v>139</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="D136" s="9">
         <v>0</v>
@@ -4893,10 +4891,10 @@
         <v>140</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="D137" s="9">
         <v>0</v>
@@ -4914,10 +4912,10 @@
         <v>141</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="D138" s="9">
         <v>0</v>
@@ -4935,10 +4933,10 @@
         <v>142</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D139" s="9">
         <v>141</v>
@@ -4956,10 +4954,10 @@
         <v>143</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D140" s="9">
         <v>51</v>
@@ -4977,10 +4975,10 @@
         <v>144</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D141" s="9">
         <v>201</v>
@@ -4998,10 +4996,10 @@
         <v>145</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D142" s="9">
         <v>72</v>
@@ -5019,10 +5017,10 @@
         <v>146</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="D143" s="9">
         <v>0</v>
@@ -5040,10 +5038,10 @@
         <v>147</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D144" s="9">
         <v>16</v>
@@ -5061,10 +5059,10 @@
         <v>148</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D145" s="9">
         <v>85</v>
@@ -5082,10 +5080,10 @@
         <v>149</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D146" s="9">
         <v>104</v>
@@ -5103,10 +5101,10 @@
         <v>150</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D147" s="9">
         <v>72</v>
@@ -5124,10 +5122,10 @@
         <v>151</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D148" s="9">
         <v>0</v>
@@ -5145,10 +5143,10 @@
         <v>152</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D149" s="9">
         <v>79</v>
@@ -5166,10 +5164,10 @@
         <v>153</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D150" s="9">
         <v>75</v>
@@ -5187,10 +5185,10 @@
         <v>154</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D151" s="9">
         <v>47</v>
@@ -5211,7 +5209,7 @@
         <v>418</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D152" s="9">
         <v>0</v>
@@ -5232,7 +5230,7 @@
         <v>418</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D153" s="9">
         <v>0</v>
@@ -5250,10 +5248,10 @@
         <v>157</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D154" s="9">
         <v>0</v>
@@ -5271,10 +5269,10 @@
         <v>158</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D155" s="9">
         <v>163</v>
@@ -5292,10 +5290,10 @@
         <v>159</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D156" s="9">
         <v>70</v>
@@ -5313,10 +5311,10 @@
         <v>160</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D157" s="9">
         <v>45</v>
@@ -5334,10 +5332,10 @@
         <v>161</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D158" s="9">
         <v>129</v>
@@ -5355,10 +5353,10 @@
         <v>162</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D159" s="9">
         <v>11</v>
@@ -5376,10 +5374,10 @@
         <v>163</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D160" s="9">
         <v>176</v>
@@ -5397,10 +5395,10 @@
         <v>164</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D161" s="9">
         <v>108</v>
@@ -5418,10 +5416,10 @@
         <v>165</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="D162" s="9">
         <v>0</v>
@@ -5439,10 +5437,10 @@
         <v>166</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D163" s="9">
         <v>103</v>
@@ -5460,10 +5458,10 @@
         <v>167</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D164" s="9">
         <v>124</v>
@@ -5481,10 +5479,10 @@
         <v>168</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D165" s="9">
         <v>99</v>
@@ -5502,10 +5500,10 @@
         <v>169</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D166" s="9">
         <v>55</v>
@@ -5523,10 +5521,10 @@
         <v>170</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D167" s="9">
         <v>84</v>
@@ -5544,10 +5542,10 @@
         <v>171</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D168" s="9">
         <v>0</v>
@@ -5565,10 +5563,10 @@
         <v>172</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D169" s="9">
         <v>0</v>
@@ -5586,10 +5584,10 @@
         <v>173</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="D170" s="9">
         <v>0</v>
@@ -5607,10 +5605,10 @@
         <v>174</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D171" s="9">
         <v>0</v>
@@ -5628,10 +5626,10 @@
         <v>175</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D172" s="9">
         <v>84</v>
@@ -5649,10 +5647,10 @@
         <v>176</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="D173" s="9">
         <v>0</v>
@@ -5670,10 +5668,10 @@
         <v>177</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D174" s="9">
         <v>78</v>
@@ -5691,10 +5689,10 @@
         <v>178</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D175" s="9">
         <v>0</v>
@@ -5712,10 +5710,10 @@
         <v>179</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="D176" s="9">
         <v>0</v>
@@ -5733,10 +5731,10 @@
         <v>180</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D177" s="9">
         <v>41</v>
@@ -5754,10 +5752,10 @@
         <v>181</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D178" s="9">
         <v>37</v>
@@ -5775,10 +5773,10 @@
         <v>182</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D179" s="9">
         <v>84</v>
@@ -5796,10 +5794,10 @@
         <v>183</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D180" s="9">
         <v>58</v>
@@ -5817,10 +5815,10 @@
         <v>184</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D181" s="9">
         <v>114</v>
@@ -5838,10 +5836,10 @@
         <v>185</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D182" s="9">
         <v>48</v>
@@ -5859,10 +5857,10 @@
         <v>186</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D183" s="9">
         <v>154</v>
@@ -5880,10 +5878,10 @@
         <v>187</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D184" s="9">
         <v>46</v>
@@ -5901,10 +5899,10 @@
         <v>188</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D185" s="9">
         <v>117</v>
@@ -5922,10 +5920,10 @@
         <v>189</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D186" s="9">
         <v>82</v>
@@ -5943,10 +5941,10 @@
         <v>190</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D187" s="9">
         <v>144</v>
@@ -5964,10 +5962,10 @@
         <v>191</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D188" s="9">
         <v>0</v>
@@ -5985,10 +5983,10 @@
         <v>192</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D189" s="9">
         <v>104</v>
@@ -6006,10 +6004,10 @@
         <v>193</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D190" s="9">
         <v>79</v>
@@ -6027,10 +6025,10 @@
         <v>194</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D191" s="9">
         <v>35</v>
@@ -6051,7 +6049,7 @@
         <v>418</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D192" s="9">
         <v>3</v>
@@ -6069,10 +6067,10 @@
         <v>196</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D193" s="9">
         <v>0</v>
@@ -6093,7 +6091,7 @@
         <v>419</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D194" s="9">
         <v>0</v>
@@ -6114,7 +6112,7 @@
         <v>419</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D195" s="9">
         <v>2</v>
@@ -6135,7 +6133,7 @@
         <v>419</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="D196" s="9">
         <v>0</v>
@@ -6153,10 +6151,10 @@
         <v>200</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D197" s="9">
         <v>0</v>
@@ -6174,10 +6172,10 @@
         <v>201</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D198" s="9">
         <v>29</v>
@@ -6195,10 +6193,10 @@
         <v>202</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D199" s="9">
         <v>53</v>
@@ -6216,10 +6214,10 @@
         <v>203</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D200" s="9">
         <v>87</v>
@@ -6237,10 +6235,10 @@
         <v>204</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D201" s="9">
         <v>65</v>
@@ -6258,10 +6256,10 @@
         <v>205</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D202" s="9">
         <v>57</v>
@@ -6279,10 +6277,10 @@
         <v>206</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D203" s="9">
         <v>0</v>
@@ -6300,10 +6298,10 @@
         <v>207</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D204" s="9">
         <v>85</v>
@@ -6321,10 +6319,10 @@
         <v>208</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D205" s="9">
         <v>33</v>
@@ -6342,10 +6340,10 @@
         <v>209</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D206" s="9">
         <v>30</v>
@@ -6363,10 +6361,10 @@
         <v>210</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D207" s="9">
         <v>52</v>
@@ -6384,10 +6382,10 @@
         <v>211</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D208" s="9">
         <v>147</v>
@@ -6405,10 +6403,10 @@
         <v>212</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>434</v>
+        <v>512</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D209" s="9">
         <v>53</v>
@@ -6426,10 +6424,10 @@
         <v>213</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>434</v>
+        <v>512</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D210" s="9">
         <v>0</v>
@@ -6447,10 +6445,10 @@
         <v>214</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D211" s="9">
         <v>127</v>
@@ -6468,10 +6466,10 @@
         <v>215</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D212" s="9">
         <v>0</v>
@@ -6489,10 +6487,10 @@
         <v>216</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D213" s="9">
         <v>11</v>
@@ -6510,10 +6508,10 @@
         <v>217</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D214" s="9">
         <v>214</v>
@@ -6531,10 +6529,10 @@
         <v>218</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D215" s="9">
         <v>187</v>
@@ -6552,10 +6550,10 @@
         <v>219</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D216" s="9">
         <v>222</v>
@@ -6573,10 +6571,10 @@
         <v>220</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D217" s="9">
         <v>146</v>
@@ -6594,10 +6592,10 @@
         <v>221</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D218" s="9">
         <v>182</v>
@@ -6615,10 +6613,10 @@
         <v>222</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D219" s="9">
         <v>4</v>
@@ -6636,10 +6634,10 @@
         <v>223</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D220" s="9">
         <v>130</v>
@@ -6657,10 +6655,10 @@
         <v>224</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D221" s="9">
         <v>10</v>
@@ -6678,10 +6676,10 @@
         <v>225</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D222" s="9">
         <v>0</v>
@@ -6699,10 +6697,10 @@
         <v>226</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D223" s="9">
         <v>0</v>
@@ -6720,10 +6718,10 @@
         <v>227</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="D224" s="9">
         <v>0</v>
@@ -6741,10 +6739,10 @@
         <v>228</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D225" s="9">
         <v>0</v>
@@ -6762,10 +6760,10 @@
         <v>229</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D226" s="9">
         <v>140</v>
@@ -6783,10 +6781,10 @@
         <v>230</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D227" s="9">
         <v>46</v>
@@ -6804,10 +6802,10 @@
         <v>231</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D228" s="9">
         <v>0</v>
@@ -6825,10 +6823,10 @@
         <v>232</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D229" s="9">
         <v>51</v>
@@ -6846,10 +6844,10 @@
         <v>233</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D230" s="9">
         <v>18</v>
@@ -6867,10 +6865,10 @@
         <v>234</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D231" s="9">
         <v>137</v>
@@ -6888,10 +6886,10 @@
         <v>235</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D232" s="9">
         <v>0</v>
@@ -6909,10 +6907,10 @@
         <v>236</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D233" s="9">
         <v>135</v>
@@ -6930,10 +6928,10 @@
         <v>237</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D234" s="9">
         <v>157</v>
@@ -6951,10 +6949,10 @@
         <v>238</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D235" s="9">
         <v>0</v>
@@ -6972,10 +6970,10 @@
         <v>239</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D236" s="9">
         <v>93</v>
@@ -6993,10 +6991,10 @@
         <v>240</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D237" s="9">
         <v>63</v>
@@ -7014,10 +7012,10 @@
         <v>241</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D238" s="9">
         <v>230</v>
@@ -7035,10 +7033,10 @@
         <v>242</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D239" s="9">
         <v>35</v>
@@ -7056,10 +7054,10 @@
         <v>243</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D240" s="9">
         <v>9</v>
@@ -7077,10 +7075,10 @@
         <v>244</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D241" s="9">
         <v>114</v>
@@ -7098,10 +7096,10 @@
         <v>245</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D242" s="9">
         <v>165</v>
@@ -7119,10 +7117,10 @@
         <v>246</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D243" s="9">
         <v>51</v>
@@ -7140,10 +7138,10 @@
         <v>247</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D244" s="9">
         <v>14</v>
@@ -7161,10 +7159,10 @@
         <v>248</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D245" s="9">
         <v>71</v>
@@ -7182,10 +7180,10 @@
         <v>249</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D246" s="9">
         <v>0</v>
@@ -7203,10 +7201,10 @@
         <v>250</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D247" s="9">
         <v>0</v>
@@ -7224,10 +7222,10 @@
         <v>251</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D248" s="9">
         <v>0</v>
@@ -7245,10 +7243,10 @@
         <v>252</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D249" s="9">
         <v>113</v>
@@ -7266,10 +7264,10 @@
         <v>253</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D250" s="9">
         <v>88</v>
@@ -7287,10 +7285,10 @@
         <v>254</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D251" s="9">
         <v>0</v>
@@ -7308,10 +7306,10 @@
         <v>255</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D252" s="9">
         <v>145</v>
@@ -7329,10 +7327,10 @@
         <v>256</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D253" s="9">
         <v>0</v>
@@ -7350,10 +7348,10 @@
         <v>257</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D254" s="9">
         <v>66</v>
@@ -7371,10 +7369,10 @@
         <v>258</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D255" s="9">
         <v>192</v>
@@ -7392,10 +7390,10 @@
         <v>259</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D256" s="9">
         <v>97</v>
@@ -7413,10 +7411,10 @@
         <v>260</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D257" s="9">
         <v>127</v>
@@ -7434,10 +7432,10 @@
         <v>261</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D258" s="9">
         <v>84</v>
@@ -7455,10 +7453,10 @@
         <v>262</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D259" s="9">
         <v>0</v>
@@ -7476,10 +7474,10 @@
         <v>263</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D260" s="9">
         <v>188</v>
@@ -7497,10 +7495,10 @@
         <v>264</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D261" s="9">
         <v>46</v>
@@ -7518,10 +7516,10 @@
         <v>265</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D262" s="9">
         <v>0</v>
@@ -7539,10 +7537,10 @@
         <v>266</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D263" s="9">
         <v>0</v>
@@ -7560,10 +7558,10 @@
         <v>267</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D264" s="9">
         <v>0</v>
@@ -7581,10 +7579,10 @@
         <v>268</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D265" s="9">
         <v>0</v>
@@ -7602,10 +7600,10 @@
         <v>269</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D266" s="9">
         <v>67</v>
@@ -7623,10 +7621,10 @@
         <v>270</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D267" s="9">
         <v>0</v>
@@ -7644,10 +7642,10 @@
         <v>271</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D268" s="9">
         <v>162</v>
@@ -7665,10 +7663,10 @@
         <v>272</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D269" s="9">
         <v>121</v>
@@ -7686,10 +7684,10 @@
         <v>273</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D270" s="9">
         <v>63</v>
@@ -7707,10 +7705,10 @@
         <v>274</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D271" s="9">
         <v>104</v>
@@ -7728,10 +7726,10 @@
         <v>275</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D272" s="9">
         <v>0</v>
@@ -7749,10 +7747,10 @@
         <v>276</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D273" s="9">
         <v>0</v>
@@ -7770,10 +7768,10 @@
         <v>277</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C274" s="9" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="D274" s="9">
         <v>0</v>
@@ -7791,10 +7789,10 @@
         <v>278</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="D275" s="9">
         <v>0</v>
@@ -7812,10 +7810,10 @@
         <v>279</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="D276" s="9">
         <v>0</v>
@@ -7833,10 +7831,10 @@
         <v>280</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D277" s="9">
         <v>95</v>
@@ -7854,10 +7852,10 @@
         <v>281</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D278" s="9">
         <v>99</v>
@@ -7875,10 +7873,10 @@
         <v>282</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D279" s="9">
         <v>100</v>
@@ -7896,10 +7894,10 @@
         <v>283</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D280" s="9">
         <v>159</v>
@@ -7917,10 +7915,10 @@
         <v>284</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D281" s="9">
         <v>36</v>
@@ -7938,10 +7936,10 @@
         <v>285</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D282" s="9">
         <v>1</v>
@@ -7959,10 +7957,10 @@
         <v>286</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="D283" s="9">
         <v>0</v>
@@ -7980,10 +7978,10 @@
         <v>287</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D284" s="9">
         <v>0</v>
@@ -8001,10 +7999,10 @@
         <v>288</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="D285" s="9">
         <v>0</v>
@@ -8022,10 +8020,10 @@
         <v>289</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D286" s="9">
         <v>0</v>
@@ -8043,10 +8041,10 @@
         <v>290</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D287" s="9">
         <v>0</v>
@@ -8064,10 +8062,10 @@
         <v>291</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D288" s="9">
         <v>0</v>
@@ -8085,10 +8083,10 @@
         <v>292</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D289" s="9">
         <v>0</v>
@@ -8106,10 +8104,10 @@
         <v>293</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D290" s="9">
         <v>0</v>
@@ -8127,10 +8125,10 @@
         <v>294</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D291" s="9">
         <v>0</v>
@@ -8148,10 +8146,10 @@
         <v>295</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D292" s="9">
         <v>0</v>
@@ -8169,10 +8167,10 @@
         <v>296</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D293" s="9">
         <v>0</v>
@@ -8190,10 +8188,10 @@
         <v>297</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D294" s="9">
         <v>0</v>
@@ -8211,10 +8209,10 @@
         <v>298</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D295" s="9">
         <v>0</v>
@@ -8232,10 +8230,10 @@
         <v>299</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D296" s="9">
         <v>0</v>
@@ -8253,10 +8251,10 @@
         <v>300</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D297" s="9">
         <v>0</v>
@@ -8274,10 +8272,10 @@
         <v>301</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D298" s="9">
         <v>79</v>
@@ -8295,10 +8293,10 @@
         <v>302</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D299" s="9">
         <v>55</v>
@@ -8316,10 +8314,10 @@
         <v>303</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D300" s="9">
         <v>18</v>
@@ -8337,10 +8335,10 @@
         <v>304</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D301" s="9">
         <v>87</v>
@@ -8358,10 +8356,10 @@
         <v>305</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="D302" s="9">
         <v>0</v>
@@ -8379,10 +8377,10 @@
         <v>306</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C303" s="9" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="D303" s="9">
         <v>0</v>
@@ -8400,10 +8398,10 @@
         <v>307</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C304" s="9" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="D304" s="9">
         <v>0</v>
@@ -8421,10 +8419,10 @@
         <v>308</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D305" s="9">
         <v>183</v>
@@ -8442,10 +8440,10 @@
         <v>309</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D306" s="9">
         <v>0</v>
@@ -8463,10 +8461,10 @@
         <v>310</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C307" s="9" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="D307" s="9">
         <v>0</v>
@@ -8484,10 +8482,10 @@
         <v>311</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C308" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D308" s="9">
         <v>0</v>
@@ -8505,10 +8503,10 @@
         <v>312</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D309" s="9">
         <v>38</v>
@@ -8526,10 +8524,10 @@
         <v>313</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D310" s="9">
         <v>57</v>
@@ -8547,10 +8545,10 @@
         <v>314</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C311" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D311" s="9">
         <v>151</v>
@@ -8568,10 +8566,10 @@
         <v>315</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D312" s="9">
         <v>0</v>
@@ -8589,10 +8587,10 @@
         <v>316</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="D313" s="9">
         <v>0</v>
@@ -8610,10 +8608,10 @@
         <v>317</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D314" s="9">
         <v>0</v>
@@ -8631,10 +8629,10 @@
         <v>318</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C315" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D315" s="9">
         <v>103</v>
@@ -8652,10 +8650,10 @@
         <v>319</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C316" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D316" s="9">
         <v>64</v>
@@ -8673,10 +8671,10 @@
         <v>320</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C317" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D317" s="9">
         <v>115</v>
@@ -8694,10 +8692,10 @@
         <v>321</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D318" s="9">
         <v>102</v>
@@ -8715,10 +8713,10 @@
         <v>322</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D319" s="9">
         <v>93</v>
@@ -8736,10 +8734,10 @@
         <v>323</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C320" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D320" s="9">
         <v>81</v>
@@ -8757,10 +8755,10 @@
         <v>324</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D321" s="9">
         <v>141</v>
@@ -8778,10 +8776,10 @@
         <v>325</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C322" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D322" s="9">
         <v>128</v>
@@ -8799,10 +8797,10 @@
         <v>326</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D323" s="9">
         <v>44</v>
@@ -8820,10 +8818,10 @@
         <v>327</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C324" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D324" s="9">
         <v>0</v>
@@ -8841,10 +8839,10 @@
         <v>328</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D325" s="9">
         <v>0</v>
@@ -8862,10 +8860,10 @@
         <v>329</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C326" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D326" s="9">
         <v>48</v>
@@ -8883,10 +8881,10 @@
         <v>330</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C327" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D327" s="9">
         <v>0</v>
@@ -8904,10 +8902,10 @@
         <v>331</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C328" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D328" s="9">
         <v>66</v>
@@ -8925,10 +8923,10 @@
         <v>332</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C329" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D329" s="9">
         <v>179</v>
@@ -8946,10 +8944,10 @@
         <v>333</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C330" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D330" s="9">
         <v>228</v>
@@ -8967,10 +8965,10 @@
         <v>334</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C331" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D331" s="9">
         <v>174</v>
@@ -8988,10 +8986,10 @@
         <v>335</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D332" s="9">
         <v>1</v>
@@ -9009,10 +9007,10 @@
         <v>336</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="C333" s="9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D333" s="9">
         <v>0</v>
@@ -9030,10 +9028,10 @@
         <v>337</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="C334" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D334" s="9">
         <v>56</v>
@@ -9051,10 +9049,10 @@
         <v>338</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C335" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D335" s="9">
         <v>100</v>
@@ -9072,10 +9070,10 @@
         <v>339</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C336" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D336" s="9">
         <v>66</v>
@@ -9093,10 +9091,10 @@
         <v>340</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C337" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D337" s="9">
         <v>41</v>
@@ -9114,10 +9112,10 @@
         <v>341</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C338" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D338" s="9">
         <v>25</v>
@@ -9135,10 +9133,10 @@
         <v>342</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C339" s="9" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="D339" s="9">
         <v>0</v>
@@ -9156,10 +9154,10 @@
         <v>343</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C340" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D340" s="9">
         <v>0</v>
@@ -9177,10 +9175,10 @@
         <v>344</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C341" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D341" s="9">
         <v>0</v>
@@ -9198,10 +9196,10 @@
         <v>345</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C342" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D342" s="9">
         <v>91</v>
@@ -9219,10 +9217,10 @@
         <v>346</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="C343" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D343" s="9">
         <v>264</v>
@@ -9240,10 +9238,10 @@
         <v>347</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C344" s="9" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="D344" s="9">
         <v>0</v>
@@ -9261,10 +9259,10 @@
         <v>348</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C345" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D345" s="9">
         <v>0</v>
@@ -9282,10 +9280,10 @@
         <v>349</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="C346" s="9" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="D346" s="9">
         <v>0</v>
@@ -9303,10 +9301,10 @@
         <v>350</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C347" s="9" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="D347" s="9">
         <v>0</v>
@@ -9324,10 +9322,10 @@
         <v>351</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="C348" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D348" s="9">
         <v>259</v>
@@ -9345,10 +9343,10 @@
         <v>352</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="C349" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D349" s="9">
         <v>0</v>
@@ -9366,10 +9364,10 @@
         <v>353</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C350" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D350" s="9">
         <v>101</v>
@@ -9387,10 +9385,10 @@
         <v>354</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="C351" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D351" s="9">
         <v>98</v>
@@ -9408,10 +9406,10 @@
         <v>355</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="C352" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D352" s="9">
         <v>0</v>
@@ -9429,10 +9427,10 @@
         <v>356</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="C353" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D353" s="9">
         <v>178</v>
@@ -9450,10 +9448,10 @@
         <v>357</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="C354" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D354" s="9">
         <v>1</v>
@@ -9471,10 +9469,10 @@
         <v>358</v>
       </c>
       <c r="B355" s="9" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C355" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D355" s="9">
         <v>138</v>
@@ -9492,10 +9490,10 @@
         <v>359</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C356" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D356" s="9">
         <v>73</v>
@@ -9513,10 +9511,10 @@
         <v>360</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C357" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D357" s="9">
         <v>188</v>
@@ -9534,10 +9532,10 @@
         <v>361</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C358" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D358" s="9">
         <v>30</v>
@@ -9555,10 +9553,10 @@
         <v>362</v>
       </c>
       <c r="B359" s="9" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="C359" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D359" s="9">
         <v>94</v>
@@ -9576,10 +9574,10 @@
         <v>363</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D360" s="9">
         <v>63</v>
@@ -9597,10 +9595,10 @@
         <v>364</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="C361" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D361" s="9">
         <v>0</v>
@@ -9618,10 +9616,10 @@
         <v>365</v>
       </c>
       <c r="B362" s="9" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="C362" s="9" t="s">
-        <v>508</v>
+        <v>477</v>
       </c>
       <c r="D362" s="9">
         <v>0</v>
@@ -9639,10 +9637,10 @@
         <v>366</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>509</v>
+        <v>478</v>
       </c>
       <c r="D363" s="9">
         <v>0</v>
@@ -9660,10 +9658,10 @@
         <v>367</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="C364" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D364" s="9">
         <v>0</v>
@@ -9681,10 +9679,10 @@
         <v>368</v>
       </c>
       <c r="B365" s="9" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D365" s="9">
         <v>0</v>
@@ -9702,10 +9700,10 @@
         <v>369</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="C366" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D366" s="9">
         <v>180</v>
@@ -9723,10 +9721,10 @@
         <v>370</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="C367" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D367" s="9">
         <v>152</v>
@@ -9744,10 +9742,10 @@
         <v>371</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="C368" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D368" s="9">
         <v>131</v>
@@ -9765,10 +9763,10 @@
         <v>372</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="C369" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D369" s="9">
         <v>44</v>
@@ -9786,10 +9784,10 @@
         <v>373</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="C370" s="9" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="D370" s="9">
         <v>0</v>
@@ -9807,10 +9805,10 @@
         <v>374</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C371" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D371" s="9">
         <v>37</v>
@@ -9828,10 +9826,10 @@
         <v>375</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D372" s="9">
         <v>93</v>
@@ -9849,10 +9847,10 @@
         <v>376</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D373" s="9">
         <v>200</v>
@@ -9870,10 +9868,10 @@
         <v>377</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C374" s="9" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="D374" s="9">
         <v>0</v>
@@ -9891,10 +9889,10 @@
         <v>378</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="C375" s="9" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="D375" s="9">
         <v>0</v>
@@ -9912,10 +9910,10 @@
         <v>379</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C376" s="9" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="D376" s="9">
         <v>0</v>
@@ -9933,10 +9931,10 @@
         <v>380</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C377" s="9" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D377" s="9">
         <v>0</v>
@@ -9954,10 +9952,10 @@
         <v>381</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="D378" s="9">
         <v>0</v>
@@ -9975,10 +9973,10 @@
         <v>382</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C379" s="9" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D379" s="9">
         <v>0</v>
@@ -9996,10 +9994,10 @@
         <v>383</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C380" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D380" s="9">
         <v>0</v>
@@ -10017,10 +10015,10 @@
         <v>384</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C381" s="9" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="D381" s="9">
         <v>0</v>
@@ -10038,10 +10036,10 @@
         <v>385</v>
       </c>
       <c r="B382" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C382" s="9" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="D382" s="9">
         <v>0</v>
@@ -10059,10 +10057,10 @@
         <v>386</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C383" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D383" s="9">
         <v>74</v>
@@ -10080,10 +10078,10 @@
         <v>387</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C384" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D384" s="9">
         <v>274</v>
@@ -10101,10 +10099,10 @@
         <v>388</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C385" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D385" s="9">
         <v>1</v>
@@ -10122,10 +10120,10 @@
         <v>389</v>
       </c>
       <c r="B386" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C386" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D386" s="9">
         <v>78</v>
@@ -10143,10 +10141,10 @@
         <v>390</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C387" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D387" s="9">
         <v>106</v>
@@ -10164,10 +10162,10 @@
         <v>391</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C388" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D388" s="9">
         <v>108</v>
@@ -10185,10 +10183,10 @@
         <v>392</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C389" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D389" s="9">
         <v>44</v>
@@ -10206,10 +10204,10 @@
         <v>393</v>
       </c>
       <c r="B390" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C390" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D390" s="9">
         <v>66</v>
@@ -10227,10 +10225,10 @@
         <v>394</v>
       </c>
       <c r="B391" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C391" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D391" s="9">
         <v>96</v>
@@ -10248,10 +10246,10 @@
         <v>395</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D392" s="4">
         <v>0</v>
@@ -10269,10 +10267,10 @@
         <v>396</v>
       </c>
       <c r="B393" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C393" s="9" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="D393" s="9">
         <v>0</v>
@@ -10290,10 +10288,10 @@
         <v>397</v>
       </c>
       <c r="B394" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C394" s="9" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="D394" s="9">
         <v>0</v>
@@ -10311,10 +10309,10 @@
         <v>398</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C395" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D395" s="9">
         <v>0</v>
@@ -10332,10 +10330,10 @@
         <v>399</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C396" s="9" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D396" s="9">
         <v>0</v>
@@ -10353,10 +10351,10 @@
         <v>400</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C397" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D397" s="9">
         <v>0</v>
@@ -10374,10 +10372,10 @@
         <v>401</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C398" s="9" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="D398" s="9">
         <v>0</v>
@@ -10395,10 +10393,10 @@
         <v>402</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C399" s="9" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="D399" s="9">
         <v>0</v>
@@ -10416,10 +10414,10 @@
         <v>403</v>
       </c>
       <c r="B400" s="9" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="C400" s="9" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="D400" s="9">
         <v>0</v>
@@ -10437,10 +10435,10 @@
         <v>404</v>
       </c>
       <c r="B401" s="9" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="C401" s="9" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="D401" s="9">
         <v>0</v>
@@ -10458,10 +10456,10 @@
         <v>405</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C402" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D402" s="9">
         <v>77</v>
@@ -10479,10 +10477,10 @@
         <v>406</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="C403" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D403" s="9">
         <v>60</v>
@@ -10500,10 +10498,10 @@
         <v>407</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="C404" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D404" s="9">
         <v>94</v>
@@ -10521,10 +10519,10 @@
         <v>408</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="C405" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D405" s="9">
         <v>80</v>
@@ -10542,10 +10540,10 @@
         <v>409</v>
       </c>
       <c r="B406" s="9" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="C406" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D406" s="9">
         <v>76</v>
@@ -10563,10 +10561,10 @@
         <v>410</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="C407" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D407" s="9">
         <v>63</v>
@@ -10584,10 +10582,10 @@
         <v>411</v>
       </c>
       <c r="B408" s="9" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="C408" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D408" s="9">
         <v>83</v>
@@ -10605,10 +10603,10 @@
         <v>412</v>
       </c>
       <c r="B409" s="9" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C409" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D409" s="9">
         <v>45</v>
@@ -10626,10 +10624,10 @@
         <v>413</v>
       </c>
       <c r="B410" s="9" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C410" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D410" s="9">
         <v>16</v>
@@ -10647,10 +10645,10 @@
         <v>414</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C411" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D411" s="9">
         <v>91</v>
@@ -10668,10 +10666,10 @@
         <v>415</v>
       </c>
       <c r="B412" s="9" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C412" s="9" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D412" s="9">
         <v>0</v>
@@ -10689,10 +10687,10 @@
         <v>416</v>
       </c>
       <c r="B413" s="9" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="C413" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D413" s="9">
         <v>0</v>
@@ -10710,10 +10708,10 @@
         <v>417</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="C414" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D414" s="9">
         <v>0</v>
